--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>67.63765973416893</v>
+        <v>98.71043063876773</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.54483001120464</v>
+        <v>135.0599659967591</v>
       </c>
       <c r="AC2" t="n">
-        <v>83.71248132244256</v>
+        <v>122.1700323999174</v>
       </c>
       <c r="AD2" t="n">
-        <v>67637.65973416893</v>
+        <v>98710.43063876774</v>
       </c>
       <c r="AE2" t="n">
-        <v>92544.83001120464</v>
+        <v>135059.9659967591</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.102582114724856e-06</v>
+        <v>8.626168235682614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.969907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>83712.48132244256</v>
+        <v>122170.0323999174</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.06860355514285</v>
+        <v>81.72697976371202</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.55675754076056</v>
+        <v>111.8224592525469</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.58221787373584</v>
+        <v>101.1502806853198</v>
       </c>
       <c r="AD3" t="n">
-        <v>61068.60355514285</v>
+        <v>81726.97976371202</v>
       </c>
       <c r="AE3" t="n">
-        <v>83556.75754076056</v>
+        <v>111822.4592525469</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.828386318449691e-06</v>
+        <v>9.853176253726768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.47608024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>75582.21787373585</v>
+        <v>101150.2806853198</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.76250316560822</v>
+        <v>78.94363885332821</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.40144924983198</v>
+        <v>108.0141694266269</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.72804777758948</v>
+        <v>97.70544869541604</v>
       </c>
       <c r="AD2" t="n">
-        <v>58762.50316560821</v>
+        <v>78943.63885332822</v>
       </c>
       <c r="AE2" t="n">
-        <v>80401.44924983199</v>
+        <v>108014.1694266269</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.974456933804542e-06</v>
+        <v>1.034651079255773e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.506944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>72728.04777758948</v>
+        <v>97705.44869541604</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.71655802889907</v>
+        <v>78.72710151602686</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.33858508683016</v>
+        <v>107.7178934887782</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.67118328207414</v>
+        <v>97.43744891724967</v>
       </c>
       <c r="AD3" t="n">
-        <v>58716.55802889907</v>
+        <v>78727.10151602686</v>
       </c>
       <c r="AE3" t="n">
-        <v>80338.58508683016</v>
+        <v>107717.8934887782</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.999774501176144e-06</v>
+        <v>1.039035552806322e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.495370370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>72671.18328207414</v>
+        <v>97437.44891724967</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.51968209123032</v>
+        <v>81.6950972202328</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.59623427581576</v>
+        <v>111.7788361500001</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.47687437302113</v>
+        <v>101.1108209104546</v>
       </c>
       <c r="AD2" t="n">
-        <v>54519.68209123032</v>
+        <v>81695.0972202328</v>
       </c>
       <c r="AE2" t="n">
-        <v>74596.23427581576</v>
+        <v>111778.8361500001</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.894215041583593e-06</v>
+        <v>1.11531232331579e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.969907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>67476.87437302113</v>
+        <v>101110.8209104546</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.49641700980664</v>
+        <v>74.48967856775131</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.93264608191463</v>
+        <v>101.9200644690438</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.68574091201212</v>
+        <v>92.19295656185268</v>
       </c>
       <c r="AD2" t="n">
-        <v>55496.41700980664</v>
+        <v>74489.67856775131</v>
       </c>
       <c r="AE2" t="n">
-        <v>75932.64608191463</v>
+        <v>101920.0644690438</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.079179102379396e-06</v>
+        <v>1.107494408015067e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.680555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>68685.74091201212</v>
+        <v>92192.95656185268</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.71312387539004</v>
+        <v>81.23317246350385</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.17510691092346</v>
+        <v>111.1468103191618</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.85523705839677</v>
+        <v>100.5391147378576</v>
       </c>
       <c r="AD2" t="n">
-        <v>63713.12387539004</v>
+        <v>81233.17246350386</v>
       </c>
       <c r="AE2" t="n">
-        <v>87175.10691092347</v>
+        <v>111146.8103191618</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.520404819660268e-06</v>
+        <v>1.081821476951951e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.402006172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>78855.23705839677</v>
+        <v>100539.1147378576</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.29749091817596</v>
+        <v>80.64890389820785</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.50168721177438</v>
+        <v>110.3473882920143</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.62784197614727</v>
+        <v>99.81598842698487</v>
       </c>
       <c r="AD2" t="n">
-        <v>60297.49091817596</v>
+        <v>80648.90389820785</v>
       </c>
       <c r="AE2" t="n">
-        <v>82501.68721177438</v>
+        <v>110347.3882920143</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.81579788045348e-06</v>
+        <v>1.000597095871322e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.572530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>74627.84197614726</v>
+        <v>99815.98842698487</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.3784890091103</v>
+        <v>79.55930978854998</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.24426825628858</v>
+        <v>108.8565575616816</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.49042932097402</v>
+        <v>98.46744048916059</v>
       </c>
       <c r="AD3" t="n">
-        <v>59378.48900911029</v>
+        <v>79559.30978854999</v>
       </c>
       <c r="AE3" t="n">
-        <v>81244.26825628857</v>
+        <v>108856.5575616816</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.950617009781784e-06</v>
+        <v>1.023792473710567e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.491512345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>73490.42932097401</v>
+        <v>98467.4404891606</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.19292629335517</v>
+        <v>89.96001188754704</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.8315937465718</v>
+        <v>123.0872570201151</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.4490697118361</v>
+        <v>111.3399819641978</v>
       </c>
       <c r="AD2" t="n">
-        <v>64192.92629335517</v>
+        <v>89960.01188754704</v>
       </c>
       <c r="AE2" t="n">
-        <v>87831.5937465718</v>
+        <v>123087.2570201151</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.206876721162373e-06</v>
+        <v>1.043801944878706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.776234567901235</v>
       </c>
       <c r="AH2" t="n">
-        <v>79449.0697118361</v>
+        <v>111339.9819641978</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.10831844469289</v>
+        <v>76.73682193332253</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.13812073719737</v>
+        <v>104.9947051587853</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.68072816159848</v>
+        <v>94.97415785945159</v>
       </c>
       <c r="AD2" t="n">
-        <v>57108.31844469289</v>
+        <v>76736.82193332253</v>
       </c>
       <c r="AE2" t="n">
-        <v>78138.12073719737</v>
+        <v>104994.7051587853</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.053497228729094e-06</v>
+        <v>1.072119340869167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.568672839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>70680.72816159848</v>
+        <v>94974.15785945159</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.18150157059106</v>
+        <v>78.18588495824208</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.60649723554855</v>
+        <v>106.9773771176281</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.00896486782685</v>
+        <v>96.76760638924061</v>
       </c>
       <c r="AD2" t="n">
-        <v>58181.50157059106</v>
+        <v>78185.88495824208</v>
       </c>
       <c r="AE2" t="n">
-        <v>79606.49723554855</v>
+        <v>106977.3771176281</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.007566308538633e-06</v>
+        <v>1.047667106618119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.522376543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>72008.96486782684</v>
+        <v>96767.60638924061</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.2860815345304</v>
+        <v>78.2904649221814</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.74958815595267</v>
+        <v>107.1204680380322</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.138399391617</v>
+        <v>96.89704091303075</v>
       </c>
       <c r="AD3" t="n">
-        <v>58286.08153453039</v>
+        <v>78290.4649221814</v>
       </c>
       <c r="AE3" t="n">
-        <v>79749.58815595266</v>
+        <v>107120.4680380322</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.006469396782035e-06</v>
+        <v>1.047475814785914e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.522376543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>72138.399391617</v>
+        <v>96897.04091303075</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.08867562779952</v>
+        <v>85.76352627549795</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.05719750362955</v>
+        <v>117.3454402698335</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.55770356646634</v>
+        <v>106.1461561458708</v>
       </c>
       <c r="AD2" t="n">
-        <v>65088.67562779952</v>
+        <v>85763.52627549795</v>
       </c>
       <c r="AE2" t="n">
-        <v>89057.19750362955</v>
+        <v>117345.4402698335</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.319391946707359e-06</v>
+        <v>9.042613759367054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.838734567901234</v>
       </c>
       <c r="AH2" t="n">
-        <v>80557.70356646634</v>
+        <v>106146.1561458708</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.45940581697601</v>
+        <v>80.96366426408224</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.72322631949369</v>
+        <v>110.7780573108508</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.82823770235802</v>
+        <v>100.2055549991115</v>
       </c>
       <c r="AD3" t="n">
-        <v>60459.40581697601</v>
+        <v>80963.66426408224</v>
       </c>
       <c r="AE3" t="n">
-        <v>82723.2263194937</v>
+        <v>110778.0573108508</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.884189899390109e-06</v>
+        <v>1.000273284616469e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.472222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>74828.23770235802</v>
+        <v>100205.5549991115</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.04729333621805</v>
+        <v>75.26358605852577</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.68637937465866</v>
+        <v>102.9789588403097</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.36753895716819</v>
+        <v>93.1507915404929</v>
       </c>
       <c r="AD2" t="n">
-        <v>56047.29333621805</v>
+        <v>75263.58605852578</v>
       </c>
       <c r="AE2" t="n">
-        <v>76686.37937465866</v>
+        <v>102978.9588403097</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.078464452097042e-06</v>
+        <v>1.09609098146092e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.63425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>69367.53895716819</v>
+        <v>93150.79154049291</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.81714841324787</v>
+        <v>73.32058941220012</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.00324082088791</v>
+        <v>100.320465109846</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.84503678466899</v>
+        <v>90.74602072044441</v>
       </c>
       <c r="AD2" t="n">
-        <v>54817.14841324787</v>
+        <v>73320.58941220012</v>
       </c>
       <c r="AE2" t="n">
-        <v>75003.24082088791</v>
+        <v>100320.465109846</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.977021739665691e-06</v>
+        <v>1.115121205462289e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.850308641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>67845.03678466899</v>
+        <v>90746.0207204444</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.51946357235979</v>
+        <v>81.36785751932437</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.91013234062802</v>
+        <v>111.3310923544207</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.61555128919611</v>
+        <v>100.7058091543128</v>
       </c>
       <c r="AD2" t="n">
-        <v>63519.46357235979</v>
+        <v>81367.85751932437</v>
       </c>
       <c r="AE2" t="n">
-        <v>86910.13234062803</v>
+        <v>111331.0923544207</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.752629745870821e-06</v>
+        <v>1.106252032957465e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.139660493827162</v>
       </c>
       <c r="AH2" t="n">
-        <v>78615.55128919611</v>
+        <v>100705.8091543128</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.49290700475642</v>
+        <v>99.52851505447177</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9244817589827</v>
+        <v>136.1793051856621</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.19695227183958</v>
+        <v>123.1825434276342</v>
       </c>
       <c r="AD2" t="n">
-        <v>74492.90700475642</v>
+        <v>99528.51505447176</v>
       </c>
       <c r="AE2" t="n">
-        <v>101924.4817589827</v>
+        <v>136179.3051856621</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.671215590367551e-06</v>
+        <v>9.634846106631172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.47067901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>92196.95227183957</v>
+        <v>123182.5434276342</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.45823806125435</v>
+        <v>77.27869000162886</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.61689619394051</v>
+        <v>105.7361129553737</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.11380996071577</v>
+        <v>95.64480673650615</v>
       </c>
       <c r="AD2" t="n">
-        <v>57458.23806125435</v>
+        <v>77278.69000162886</v>
       </c>
       <c r="AE2" t="n">
-        <v>78616.8961939405</v>
+        <v>105736.1129553737</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.065489555875012e-06</v>
+        <v>1.065682587960072e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.522376543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>71113.80996071576</v>
+        <v>95644.80673650616</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.58350875915201</v>
+        <v>83.09932230398286</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.62951767378564</v>
+        <v>113.7001588596244</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.45715668880278</v>
+        <v>102.8487752772664</v>
       </c>
       <c r="AD2" t="n">
-        <v>62583.50875915201</v>
+        <v>83099.32230398286</v>
       </c>
       <c r="AE2" t="n">
-        <v>85629.51767378564</v>
+        <v>113700.1588596244</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.57170728897525e-06</v>
+        <v>9.526998539740246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.695987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>77457.15668880279</v>
+        <v>102848.7752772664</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.93621199474843</v>
+        <v>80.28143333898707</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.00736945023991</v>
+        <v>109.8445988612318</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.18070120799413</v>
+        <v>99.36118451380669</v>
       </c>
       <c r="AD3" t="n">
-        <v>59936.21199474843</v>
+        <v>80281.43333898707</v>
       </c>
       <c r="AE3" t="n">
-        <v>82007.3694502399</v>
+        <v>109844.5988612318</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.913223304676034e-06</v>
+        <v>1.011095286722569e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.483796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>74180.70120799413</v>
+        <v>99361.18451380669</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.2522181006215</v>
+        <v>119.7185911130385</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.3823341014146</v>
+        <v>163.8042579722707</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.9886516889649</v>
+        <v>148.1710094921625</v>
       </c>
       <c r="AD2" t="n">
-        <v>87252.21810062151</v>
+        <v>119718.5911130385</v>
       </c>
       <c r="AE2" t="n">
-        <v>119382.3341014146</v>
+        <v>163804.2579722707</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.781342689076596e-06</v>
+        <v>8.105159033065091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.998456790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>107988.651688965</v>
+        <v>148171.0094921625</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.19413648362084</v>
+        <v>73.95062443377938</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.5190525303118</v>
+        <v>101.1825068215537</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.31162014849191</v>
+        <v>91.52579038107021</v>
       </c>
       <c r="AD2" t="n">
-        <v>55194.13648362084</v>
+        <v>73950.62443377938</v>
       </c>
       <c r="AE2" t="n">
-        <v>75519.05253031179</v>
+        <v>101182.5068215537</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.028170882212998e-06</v>
+        <v>1.110649816055597e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.761574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>68311.62014849191</v>
+        <v>91525.79038107021</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.47357126689526</v>
+        <v>75.90109974869976</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.26963164546596</v>
+        <v>103.8512331963243</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.89512644984954</v>
+        <v>93.93981725621454</v>
       </c>
       <c r="AD2" t="n">
-        <v>56473.57126689526</v>
+        <v>75901.09974869977</v>
       </c>
       <c r="AE2" t="n">
-        <v>77269.63164546597</v>
+        <v>103851.2331963243</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.089327634971855e-06</v>
+        <v>1.087813943121657e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.587962962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>69895.12644984954</v>
+        <v>93939.81725621453</v>
       </c>
     </row>
   </sheetData>
